--- a/biology/Zoologie/Bunostegos/Bunostegos.xlsx
+++ b/biology/Zoologie/Bunostegos/Bunostegos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bunostegos akokanensis
-Bunostegos est un genre éteint de reptiles de la famille des Pareiasauridae qui vivait à la fin du Permien supérieur (Changhsingien) dans ce qui est aujourd'hui le Niger. Le genre ne comprend que l'espèce type, Bunostegos akokanensis[1].
+Bunostegos est un genre éteint de reptiles de la famille des Pareiasauridae qui vivait à la fin du Permien supérieur (Changhsingien) dans ce qui est aujourd'hui le Niger. Le genre ne comprend que l'espèce type, Bunostegos akokanensis.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bunostegos a des caractéristiques anatomiques typiques des Pareiasauridae. Les spécimens adultes mesurent jusqu'à 3 m de longueur. Le corps est massivement charpenté avec des membres courts et solides. Le crâne comporte des bosses osseuses qui soutiennent peut-être des cornes. On en compte cinq, deux à l'arrière du crâne, deux au-dessus des orbites et une bosse nasale. On peut également noter une cuirasse dorsale assez développée.
 </t>
@@ -543,7 +557,9 @@
           <t>Découverte et hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bunostegos a été découvert en 2003 par une équipe de paléontologues français, américains et canadiens et d'un géologue sud-africain. Le matériel se compose de plusieurs squelettes quasi complets. Le nom de genre « Bunostegos » signifie « lézard bossu » et fait référence à l'anatomie crânienne de l'animal, le nom d'espèce « akokanensis » est dérivé du nom de la localité proche de la découverte, Akokan.
 </t>
@@ -574,7 +590,9 @@
           <t>Paléoécologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bunostegos a été découvert dans la formation de Moradi, au nord-ouest du Niger, un site fossilifère riche présentant une faune complète du Permien supérieur très endémique. Outre Bunostegos, les paléontologues ont retrouvé les restes de deux temnospondyles, Nigerpeton et Saharastega ainsi que ceux du reptile herbivore Moradisaurus. Quelques dents de Gorgonopsien ont également été retrouvées.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Christian Alfred Sidor, David C. Blackburn et Boubé Gado, « The vertebrate fauna of the Upper Permian of Niger —II, Preliminary description of a new pareiasaur », Palaeontologia Africana, vol. 39,‎ 7 novembre 2003, p. 45-52 (ISSN 0078-8554 et 2410-4418, lire en ligne)</t>
         </is>
